--- a/Financials/Yearly/TM_YR_FIN.xlsx
+++ b/Financials/Yearly/TM_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5097219B-2FA6-4337-87BF-205C522BA3CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TM" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>260596300</v>
+        <v>265590800</v>
       </c>
       <c r="E8" s="3">
-        <v>244787100</v>
+        <v>249478600</v>
       </c>
       <c r="F8" s="3">
-        <v>251935700</v>
+        <v>256764200</v>
       </c>
       <c r="G8" s="3">
-        <v>241570200</v>
+        <v>246200100</v>
       </c>
       <c r="H8" s="3">
-        <v>227887300</v>
+        <v>232254900</v>
       </c>
       <c r="I8" s="3">
-        <v>195709400</v>
+        <v>199460300</v>
       </c>
       <c r="J8" s="3">
-        <v>164837000</v>
+        <v>167996200</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>211896800</v>
+        <v>215957900</v>
       </c>
       <c r="E9" s="3">
-        <v>201653600</v>
+        <v>205518400</v>
       </c>
       <c r="F9" s="3">
-        <v>200510500</v>
+        <v>204353400</v>
       </c>
       <c r="G9" s="3">
-        <v>193735700</v>
+        <v>197448800</v>
       </c>
       <c r="H9" s="3">
-        <v>184506100</v>
+        <v>188042300</v>
       </c>
       <c r="I9" s="3">
-        <v>165345600</v>
+        <v>168514600</v>
       </c>
       <c r="J9" s="3">
-        <v>145366600</v>
+        <v>148152600</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>48699500</v>
+        <v>49632800</v>
       </c>
       <c r="E10" s="3">
-        <v>43133500</v>
+        <v>43960200</v>
       </c>
       <c r="F10" s="3">
-        <v>51425200</v>
+        <v>52410800</v>
       </c>
       <c r="G10" s="3">
-        <v>47834500</v>
+        <v>48751300</v>
       </c>
       <c r="H10" s="3">
-        <v>43381100</v>
+        <v>44212600</v>
       </c>
       <c r="I10" s="3">
-        <v>30363800</v>
+        <v>30945700</v>
       </c>
       <c r="J10" s="3">
-        <v>19470400</v>
+        <v>19843600</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,7 +862,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,7 +889,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -881,7 +916,7 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,7 +943,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>239309500</v>
+        <v>243896000</v>
       </c>
       <c r="E17" s="3">
-        <v>227097000</v>
+        <v>231449500</v>
       </c>
       <c r="F17" s="3">
-        <v>226620900</v>
+        <v>230964300</v>
       </c>
       <c r="G17" s="3">
-        <v>217172700</v>
+        <v>221335000</v>
       </c>
       <c r="H17" s="3">
-        <v>207556200</v>
+        <v>211534200</v>
       </c>
       <c r="I17" s="3">
-        <v>183993100</v>
+        <v>187519500</v>
       </c>
       <c r="J17" s="3">
-        <v>161682600</v>
+        <v>164781400</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>21286800</v>
+        <v>21694800</v>
       </c>
       <c r="E18" s="3">
-        <v>17690100</v>
+        <v>18029100</v>
       </c>
       <c r="F18" s="3">
-        <v>25314700</v>
+        <v>25799900</v>
       </c>
       <c r="G18" s="3">
-        <v>24397500</v>
+        <v>24865100</v>
       </c>
       <c r="H18" s="3">
-        <v>20331000</v>
+        <v>20720700</v>
       </c>
       <c r="I18" s="3">
-        <v>11716300</v>
+        <v>11940800</v>
       </c>
       <c r="J18" s="3">
-        <v>3154400</v>
+        <v>3214900</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,142 +1020,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2201100</v>
+        <v>2243300</v>
       </c>
       <c r="E20" s="3">
-        <v>2029500</v>
+        <v>2068400</v>
       </c>
       <c r="F20" s="3">
-        <v>1461900</v>
+        <v>1489900</v>
       </c>
       <c r="G20" s="3">
-        <v>1464700</v>
+        <v>1492800</v>
       </c>
       <c r="H20" s="3">
-        <v>1495500</v>
+        <v>1524100</v>
       </c>
       <c r="I20" s="3">
-        <v>937800</v>
+        <v>955800</v>
       </c>
       <c r="J20" s="3">
-        <v>888500</v>
+        <v>905500</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>38868800</v>
+        <v>39631100</v>
       </c>
       <c r="E21" s="3">
-        <v>34008700</v>
+        <v>34676600</v>
       </c>
       <c r="F21" s="3">
-        <v>41197800</v>
+        <v>42003600</v>
       </c>
       <c r="G21" s="3">
-        <v>38360700</v>
+        <v>39110000</v>
       </c>
       <c r="H21" s="3">
-        <v>32921600</v>
+        <v>33565000</v>
       </c>
       <c r="I21" s="3">
-        <v>22456400</v>
+        <v>22897800</v>
       </c>
       <c r="J21" s="3">
-        <v>13514600</v>
+        <v>13784200</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>244700</v>
+        <v>249400</v>
       </c>
       <c r="E22" s="3">
-        <v>260400</v>
+        <v>265400</v>
       </c>
       <c r="F22" s="3">
-        <v>314000</v>
+        <v>320000</v>
       </c>
       <c r="G22" s="3">
-        <v>202900</v>
+        <v>206800</v>
       </c>
       <c r="H22" s="3">
-        <v>174100</v>
+        <v>177500</v>
       </c>
       <c r="I22" s="3">
-        <v>203700</v>
+        <v>207600</v>
       </c>
       <c r="J22" s="3">
-        <v>203300</v>
+        <v>207200</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>23243200</v>
+        <v>23688700</v>
       </c>
       <c r="E23" s="3">
-        <v>19459200</v>
+        <v>19832200</v>
       </c>
       <c r="F23" s="3">
-        <v>26462600</v>
+        <v>26969800</v>
       </c>
       <c r="G23" s="3">
-        <v>25659400</v>
+        <v>26151200</v>
       </c>
       <c r="H23" s="3">
-        <v>21652400</v>
+        <v>22067400</v>
       </c>
       <c r="I23" s="3">
-        <v>12450400</v>
+        <v>12689000</v>
       </c>
       <c r="J23" s="3">
-        <v>3839600</v>
+        <v>3913200</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4474100</v>
+        <v>4559800</v>
       </c>
       <c r="E24" s="3">
-        <v>5578300</v>
+        <v>5685300</v>
       </c>
       <c r="F24" s="3">
-        <v>7790200</v>
+        <v>7939600</v>
       </c>
       <c r="G24" s="3">
-        <v>7925100</v>
+        <v>8077000</v>
       </c>
       <c r="H24" s="3">
-        <v>6810500</v>
+        <v>6941000</v>
       </c>
       <c r="I24" s="3">
-        <v>4893500</v>
+        <v>4987200</v>
       </c>
       <c r="J24" s="3">
-        <v>2326400</v>
+        <v>2370900</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>18769100</v>
+        <v>19128800</v>
       </c>
       <c r="E26" s="3">
-        <v>13880900</v>
+        <v>14146900</v>
       </c>
       <c r="F26" s="3">
-        <v>18672300</v>
+        <v>19030200</v>
       </c>
       <c r="G26" s="3">
-        <v>17734300</v>
+        <v>18074200</v>
       </c>
       <c r="H26" s="3">
-        <v>14841900</v>
+        <v>15126400</v>
       </c>
       <c r="I26" s="3">
-        <v>7556900</v>
+        <v>7701700</v>
       </c>
       <c r="J26" s="3">
-        <v>1513200</v>
+        <v>1542200</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>22012600</v>
+        <v>22434500</v>
       </c>
       <c r="E27" s="3">
-        <v>16155100</v>
+        <v>16464700</v>
       </c>
       <c r="F27" s="3">
-        <v>20459600</v>
+        <v>20851700</v>
       </c>
       <c r="G27" s="3">
-        <v>19277500</v>
+        <v>19647000</v>
       </c>
       <c r="H27" s="3">
-        <v>16171100</v>
+        <v>16481000</v>
       </c>
       <c r="I27" s="3">
-        <v>8534400</v>
+        <v>8698000</v>
       </c>
       <c r="J27" s="3">
-        <v>2515200</v>
+        <v>2563400</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +1263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1290,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2201100</v>
+        <v>-2243300</v>
       </c>
       <c r="E32" s="3">
-        <v>-2029500</v>
+        <v>-2068400</v>
       </c>
       <c r="F32" s="3">
-        <v>-1461900</v>
+        <v>-1489900</v>
       </c>
       <c r="G32" s="3">
-        <v>-1464700</v>
+        <v>-1492800</v>
       </c>
       <c r="H32" s="3">
-        <v>-1495500</v>
+        <v>-1524100</v>
       </c>
       <c r="I32" s="3">
-        <v>-937800</v>
+        <v>-955800</v>
       </c>
       <c r="J32" s="3">
-        <v>-888500</v>
+        <v>-905500</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>22012600</v>
+        <v>22434500</v>
       </c>
       <c r="E33" s="3">
-        <v>16155100</v>
+        <v>16464700</v>
       </c>
       <c r="F33" s="3">
-        <v>20459600</v>
+        <v>20851700</v>
       </c>
       <c r="G33" s="3">
-        <v>19277500</v>
+        <v>19647000</v>
       </c>
       <c r="H33" s="3">
-        <v>16171100</v>
+        <v>16481000</v>
       </c>
       <c r="I33" s="3">
-        <v>8534400</v>
+        <v>8698000</v>
       </c>
       <c r="J33" s="3">
-        <v>2515200</v>
+        <v>2563400</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>22012600</v>
+        <v>22434500</v>
       </c>
       <c r="E35" s="3">
-        <v>16155100</v>
+        <v>16464700</v>
       </c>
       <c r="F35" s="3">
-        <v>20459600</v>
+        <v>20851700</v>
       </c>
       <c r="G35" s="3">
-        <v>19277500</v>
+        <v>19647000</v>
       </c>
       <c r="H35" s="3">
-        <v>16171100</v>
+        <v>16481000</v>
       </c>
       <c r="I35" s="3">
-        <v>8534400</v>
+        <v>8698000</v>
       </c>
       <c r="J35" s="3">
-        <v>2515200</v>
+        <v>2563400</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,223 +1510,223 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>27073600</v>
+        <v>27592500</v>
       </c>
       <c r="E41" s="3">
-        <v>26566300</v>
+        <v>27075500</v>
       </c>
       <c r="F41" s="3">
-        <v>26072700</v>
+        <v>26572400</v>
       </c>
       <c r="G41" s="3">
-        <v>20264000</v>
+        <v>20652400</v>
       </c>
       <c r="H41" s="3">
-        <v>18105200</v>
+        <v>18452200</v>
       </c>
       <c r="I41" s="3">
-        <v>15241300</v>
+        <v>15533400</v>
       </c>
       <c r="J41" s="3">
-        <v>14894500</v>
+        <v>15180000</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>23679400</v>
+        <v>24133200</v>
       </c>
       <c r="E42" s="3">
-        <v>25760700</v>
+        <v>26254400</v>
       </c>
       <c r="F42" s="3">
-        <v>22560200</v>
+        <v>22992500</v>
       </c>
       <c r="G42" s="3">
-        <v>26001700</v>
+        <v>26500000</v>
       </c>
       <c r="H42" s="3">
-        <v>19754200</v>
+        <v>20132800</v>
       </c>
       <c r="I42" s="3">
-        <v>13769500</v>
+        <v>14033400</v>
       </c>
       <c r="J42" s="3">
-        <v>11188400</v>
+        <v>11402800</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>80337400</v>
+        <v>81877100</v>
       </c>
       <c r="E43" s="3">
-        <v>77607700</v>
+        <v>79095100</v>
       </c>
       <c r="F43" s="3">
-        <v>74190800</v>
+        <v>75612700</v>
       </c>
       <c r="G43" s="3">
-        <v>78049200</v>
+        <v>79545000</v>
       </c>
       <c r="H43" s="3">
-        <v>71105000</v>
+        <v>72467800</v>
       </c>
       <c r="I43" s="3">
-        <v>66720200</v>
+        <v>67999000</v>
       </c>
       <c r="J43" s="3">
-        <v>57861400</v>
+        <v>58970400</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22527900</v>
+        <v>22959700</v>
       </c>
       <c r="E44" s="3">
-        <v>21187000</v>
+        <v>21593100</v>
       </c>
       <c r="F44" s="3">
-        <v>18285600</v>
+        <v>18636100</v>
       </c>
       <c r="G44" s="3">
-        <v>18960700</v>
+        <v>19324100</v>
       </c>
       <c r="H44" s="3">
-        <v>16806000</v>
+        <v>17128100</v>
       </c>
       <c r="I44" s="3">
-        <v>15219000</v>
+        <v>15510700</v>
       </c>
       <c r="J44" s="3">
-        <v>14389600</v>
+        <v>14665400</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7395700</v>
+        <v>7537400</v>
       </c>
       <c r="E45" s="3">
-        <v>7063200</v>
+        <v>7198500</v>
       </c>
       <c r="F45" s="3">
-        <v>20409400</v>
+        <v>20800600</v>
       </c>
       <c r="G45" s="3">
-        <v>15820300</v>
+        <v>16123500</v>
       </c>
       <c r="H45" s="3">
-        <v>13645600</v>
+        <v>13907100</v>
       </c>
       <c r="I45" s="3">
-        <v>11322000</v>
+        <v>11538900</v>
       </c>
       <c r="J45" s="3">
-        <v>10955000</v>
+        <v>11165000</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>161014000</v>
+        <v>164100000</v>
       </c>
       <c r="E46" s="3">
-        <v>158185000</v>
+        <v>161217000</v>
       </c>
       <c r="F46" s="3">
-        <v>161519000</v>
+        <v>164614000</v>
       </c>
       <c r="G46" s="3">
-        <v>159096000</v>
+        <v>162145000</v>
       </c>
       <c r="H46" s="3">
-        <v>139416000</v>
+        <v>142088000</v>
       </c>
       <c r="I46" s="3">
-        <v>122272000</v>
+        <v>124615000</v>
       </c>
       <c r="J46" s="3">
-        <v>109289000</v>
+        <v>111384000</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>183311000</v>
+        <v>186824000</v>
       </c>
       <c r="E47" s="3">
-        <v>173524000</v>
+        <v>176849000</v>
       </c>
       <c r="F47" s="3">
-        <v>166289000</v>
+        <v>169476000</v>
       </c>
       <c r="G47" s="3">
-        <v>173598000</v>
+        <v>176925000</v>
       </c>
       <c r="H47" s="3">
-        <v>153824000</v>
+        <v>156772000</v>
       </c>
       <c r="I47" s="3">
-        <v>126640000</v>
+        <v>129067000</v>
       </c>
       <c r="J47" s="3">
-        <v>103190000</v>
+        <v>105167000</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>91074300</v>
+        <v>92819800</v>
       </c>
       <c r="E48" s="3">
-        <v>90448400</v>
+        <v>92181900</v>
       </c>
       <c r="F48" s="3">
-        <v>86397500</v>
+        <v>88053400</v>
       </c>
       <c r="G48" s="3">
-        <v>82453000</v>
+        <v>84033300</v>
       </c>
       <c r="H48" s="3">
-        <v>67778300</v>
+        <v>69077300</v>
       </c>
       <c r="I48" s="3">
-        <v>60770500</v>
+        <v>61935200</v>
       </c>
       <c r="J48" s="3">
-        <v>55307800</v>
+        <v>56367800</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1718,7 +1753,7 @@
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10834700</v>
+        <v>11042400</v>
       </c>
       <c r="E52" s="3">
-        <v>10257300</v>
+        <v>10453900</v>
       </c>
       <c r="F52" s="3">
-        <v>6477500</v>
+        <v>6601600</v>
       </c>
       <c r="G52" s="3">
-        <v>8217100</v>
+        <v>8374600</v>
       </c>
       <c r="H52" s="3">
-        <v>6531800</v>
+        <v>6656900</v>
       </c>
       <c r="I52" s="3">
-        <v>5054300</v>
+        <v>5151100</v>
       </c>
       <c r="J52" s="3">
-        <v>4087700</v>
+        <v>4166100</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>446234000</v>
+        <v>454787000</v>
       </c>
       <c r="E54" s="3">
-        <v>432414000</v>
+        <v>440702000</v>
       </c>
       <c r="F54" s="3">
-        <v>420683000</v>
+        <v>428746000</v>
       </c>
       <c r="G54" s="3">
-        <v>423364000</v>
+        <v>431478000</v>
       </c>
       <c r="H54" s="3">
-        <v>367550000</v>
+        <v>374595000</v>
       </c>
       <c r="I54" s="3">
-        <v>314737000</v>
+        <v>320769000</v>
       </c>
       <c r="J54" s="3">
-        <v>271874000</v>
+        <v>277085000</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22943600</v>
+        <v>23383400</v>
       </c>
       <c r="E57" s="3">
-        <v>22763800</v>
+        <v>23200100</v>
       </c>
       <c r="F57" s="3">
-        <v>21195000</v>
+        <v>21601200</v>
       </c>
       <c r="G57" s="3">
-        <v>21381900</v>
+        <v>21791700</v>
       </c>
       <c r="H57" s="3">
-        <v>19631200</v>
+        <v>20007500</v>
       </c>
       <c r="I57" s="3">
-        <v>18749200</v>
+        <v>19108600</v>
       </c>
       <c r="J57" s="3">
-        <v>19891700</v>
+        <v>20273000</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>82856400</v>
+        <v>84444400</v>
       </c>
       <c r="E58" s="3">
-        <v>81995400</v>
+        <v>83566900</v>
       </c>
       <c r="F58" s="3">
-        <v>75582100</v>
+        <v>77030600</v>
       </c>
       <c r="G58" s="3">
-        <v>79506200</v>
+        <v>81030000</v>
       </c>
       <c r="H58" s="3">
-        <v>69012900</v>
+        <v>70335600</v>
       </c>
       <c r="I58" s="3">
-        <v>60262400</v>
+        <v>61417400</v>
       </c>
       <c r="J58" s="3">
-        <v>52894200</v>
+        <v>53908000</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>52058400</v>
+        <v>53056200</v>
       </c>
       <c r="E59" s="3">
-        <v>48860000</v>
+        <v>49796400</v>
       </c>
       <c r="F59" s="3">
-        <v>46246900</v>
+        <v>47133200</v>
       </c>
       <c r="G59" s="3">
-        <v>44859300</v>
+        <v>45719000</v>
       </c>
       <c r="H59" s="3">
-        <v>41573500</v>
+        <v>42370300</v>
       </c>
       <c r="I59" s="3">
-        <v>35522500</v>
+        <v>36203300</v>
       </c>
       <c r="J59" s="3">
-        <v>31716700</v>
+        <v>32324500</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>157858000</v>
+        <v>160884000</v>
       </c>
       <c r="E60" s="3">
-        <v>153619000</v>
+        <v>156563000</v>
       </c>
       <c r="F60" s="3">
-        <v>143024000</v>
+        <v>145765000</v>
       </c>
       <c r="G60" s="3">
-        <v>145747000</v>
+        <v>148541000</v>
       </c>
       <c r="H60" s="3">
-        <v>130218000</v>
+        <v>132713000</v>
       </c>
       <c r="I60" s="3">
-        <v>114534000</v>
+        <v>116729000</v>
       </c>
       <c r="J60" s="3">
-        <v>104503000</v>
+        <v>106505000</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>88756500</v>
+        <v>90457600</v>
       </c>
       <c r="E61" s="3">
-        <v>87915900</v>
+        <v>89600800</v>
       </c>
       <c r="F61" s="3">
-        <v>86678200</v>
+        <v>88339500</v>
       </c>
       <c r="G61" s="3">
-        <v>88827700</v>
+        <v>90530100</v>
       </c>
       <c r="H61" s="3">
-        <v>75811100</v>
+        <v>77264100</v>
       </c>
       <c r="I61" s="3">
-        <v>65086500</v>
+        <v>66333900</v>
       </c>
       <c r="J61" s="3">
-        <v>53595000</v>
+        <v>54622200</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22910400</v>
+        <v>23349500</v>
       </c>
       <c r="E62" s="3">
-        <v>25285500</v>
+        <v>25770100</v>
       </c>
       <c r="F62" s="3">
-        <v>30538400</v>
+        <v>31123700</v>
       </c>
       <c r="G62" s="3">
-        <v>32256700</v>
+        <v>32875000</v>
       </c>
       <c r="H62" s="3">
-        <v>26529200</v>
+        <v>27037700</v>
       </c>
       <c r="I62" s="3">
-        <v>21821200</v>
+        <v>22239500</v>
       </c>
       <c r="J62" s="3">
-        <v>15616800</v>
+        <v>15916100</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>275682000</v>
+        <v>280966000</v>
       </c>
       <c r="E66" s="3">
-        <v>272748000</v>
+        <v>277976000</v>
       </c>
       <c r="F66" s="3">
-        <v>267882000</v>
+        <v>273016000</v>
       </c>
       <c r="G66" s="3">
-        <v>274453000</v>
+        <v>279713000</v>
       </c>
       <c r="H66" s="3">
-        <v>239209000</v>
+        <v>243794000</v>
       </c>
       <c r="I66" s="3">
-        <v>206984000</v>
+        <v>210951000</v>
       </c>
       <c r="J66" s="3">
-        <v>178293000</v>
+        <v>181710000</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,18 +2251,18 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4363800</v>
+        <v>4447400</v>
       </c>
       <c r="E70" s="3">
-        <v>4309700</v>
+        <v>4392300</v>
       </c>
       <c r="F70" s="3">
-        <v>4255600</v>
+        <v>4337200</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>172730000</v>
+        <v>176040000</v>
       </c>
       <c r="E72" s="3">
-        <v>156122000</v>
+        <v>159114000</v>
       </c>
       <c r="F72" s="3">
-        <v>148965000</v>
+        <v>151820000</v>
       </c>
       <c r="G72" s="3">
-        <v>138301000</v>
+        <v>140951000</v>
       </c>
       <c r="H72" s="3">
-        <v>125212000</v>
+        <v>127611000</v>
       </c>
       <c r="I72" s="3">
-        <v>112553000</v>
+        <v>114710000</v>
       </c>
       <c r="J72" s="3">
-        <v>105704000</v>
+        <v>107730000</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>166188000</v>
+        <v>169373000</v>
       </c>
       <c r="E76" s="3">
-        <v>155356000</v>
+        <v>158334000</v>
       </c>
       <c r="F76" s="3">
-        <v>148545000</v>
+        <v>151392000</v>
       </c>
       <c r="G76" s="3">
-        <v>148911000</v>
+        <v>151765000</v>
       </c>
       <c r="H76" s="3">
-        <v>128341000</v>
+        <v>130801000</v>
       </c>
       <c r="I76" s="3">
-        <v>107753000</v>
+        <v>109818000</v>
       </c>
       <c r="J76" s="3">
-        <v>93580800</v>
+        <v>95374400</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>22012600</v>
+        <v>22434500</v>
       </c>
       <c r="E81" s="3">
-        <v>16155100</v>
+        <v>16464700</v>
       </c>
       <c r="F81" s="3">
-        <v>20459600</v>
+        <v>20851700</v>
       </c>
       <c r="G81" s="3">
-        <v>19277500</v>
+        <v>19647000</v>
       </c>
       <c r="H81" s="3">
-        <v>16171100</v>
+        <v>16481000</v>
       </c>
       <c r="I81" s="3">
-        <v>8534400</v>
+        <v>8698000</v>
       </c>
       <c r="J81" s="3">
-        <v>2515200</v>
+        <v>2563400</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15380900</v>
+        <v>15675700</v>
       </c>
       <c r="E83" s="3">
-        <v>14289100</v>
+        <v>14563000</v>
       </c>
       <c r="F83" s="3">
-        <v>14421200</v>
+        <v>14697600</v>
       </c>
       <c r="G83" s="3">
-        <v>12498500</v>
+        <v>12738000</v>
       </c>
       <c r="H83" s="3">
-        <v>11095100</v>
+        <v>11307700</v>
       </c>
       <c r="I83" s="3">
-        <v>9802300</v>
+        <v>9990200</v>
       </c>
       <c r="J83" s="3">
-        <v>9471700</v>
+        <v>9653200</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>37342800</v>
+        <v>38058500</v>
       </c>
       <c r="E89" s="3">
-        <v>30284300</v>
+        <v>30864700</v>
       </c>
       <c r="F89" s="3">
-        <v>39567800</v>
+        <v>40326100</v>
       </c>
       <c r="G89" s="3">
-        <v>32692600</v>
+        <v>33319200</v>
       </c>
       <c r="H89" s="3">
-        <v>32340300</v>
+        <v>32960200</v>
       </c>
       <c r="I89" s="3">
-        <v>21743200</v>
+        <v>22159900</v>
       </c>
       <c r="J89" s="3">
-        <v>12883100</v>
+        <v>13130000</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-31920500</v>
+        <v>-32532300</v>
       </c>
       <c r="E91" s="3">
-        <v>-31412500</v>
+        <v>-32014600</v>
       </c>
       <c r="F91" s="3">
-        <v>-36005200</v>
+        <v>-36695300</v>
       </c>
       <c r="G91" s="3">
-        <v>-29781600</v>
+        <v>-30352400</v>
       </c>
       <c r="H91" s="3">
-        <v>-23760000</v>
+        <v>-24215400</v>
       </c>
       <c r="I91" s="3">
-        <v>-17510700</v>
+        <v>-17846300</v>
       </c>
       <c r="J91" s="3">
-        <v>-13589600</v>
+        <v>-13850000</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-32465000</v>
+        <v>-33087200</v>
       </c>
       <c r="E94" s="3">
-        <v>-26343400</v>
+        <v>-26848200</v>
       </c>
       <c r="F94" s="3">
-        <v>-28229200</v>
+        <v>-28770200</v>
       </c>
       <c r="G94" s="3">
-        <v>-33825700</v>
+        <v>-34473900</v>
       </c>
       <c r="H94" s="3">
-        <v>-38462500</v>
+        <v>-39199700</v>
       </c>
       <c r="I94" s="3">
-        <v>-26852300</v>
+        <v>-27366900</v>
       </c>
       <c r="J94" s="3">
-        <v>-12796400</v>
+        <v>-13041600</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,34 +2862,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5560500</v>
+        <v>-5667100</v>
       </c>
       <c r="E96" s="3">
-        <v>-5660600</v>
+        <v>-5769100</v>
       </c>
       <c r="F96" s="3">
-        <v>-6261800</v>
+        <v>-6381800</v>
       </c>
       <c r="G96" s="3">
-        <v>-4922300</v>
+        <v>-5016600</v>
       </c>
       <c r="H96" s="3">
-        <v>-3512800</v>
+        <v>-3580100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1685400</v>
+        <v>-1717700</v>
       </c>
       <c r="J96" s="3">
-        <v>-1390700</v>
+        <v>-1417300</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3983800</v>
+        <v>-4060200</v>
       </c>
       <c r="E100" s="3">
-        <v>-3327700</v>
+        <v>-3391500</v>
       </c>
       <c r="F100" s="3">
-        <v>-3757100</v>
+        <v>-3829100</v>
       </c>
       <c r="G100" s="3">
-        <v>2714600</v>
+        <v>2766600</v>
       </c>
       <c r="H100" s="3">
-        <v>8155800</v>
+        <v>8312100</v>
       </c>
       <c r="I100" s="3">
-        <v>4233100</v>
+        <v>4314300</v>
       </c>
       <c r="J100" s="3">
-        <v>-3151900</v>
+        <v>-3212300</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-386600</v>
+        <v>-394000</v>
       </c>
       <c r="E101" s="3">
-        <v>-119600</v>
+        <v>-121900</v>
       </c>
       <c r="F101" s="3">
-        <v>-1772900</v>
+        <v>-1806800</v>
       </c>
       <c r="G101" s="3">
-        <v>577300</v>
+        <v>588300</v>
       </c>
       <c r="H101" s="3">
-        <v>830300</v>
+        <v>846200</v>
       </c>
       <c r="I101" s="3">
-        <v>1222700</v>
+        <v>1246200</v>
       </c>
       <c r="J101" s="3">
-        <v>-496200</v>
+        <v>-505700</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>507300</v>
+        <v>517000</v>
       </c>
       <c r="E102" s="3">
-        <v>493600</v>
+        <v>503000</v>
       </c>
       <c r="F102" s="3">
-        <v>5808700</v>
+        <v>5920000</v>
       </c>
       <c r="G102" s="3">
-        <v>2158800</v>
+        <v>2200200</v>
       </c>
       <c r="H102" s="3">
-        <v>2863900</v>
+        <v>2918800</v>
       </c>
       <c r="I102" s="3">
-        <v>346800</v>
+        <v>353400</v>
       </c>
       <c r="J102" s="3">
-        <v>-3561400</v>
+        <v>-3629600</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/TM_YR_FIN.xlsx
+++ b/Financials/Yearly/TM_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5097219B-2FA6-4337-87BF-205C522BA3CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="TM" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>TM</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E7" s="2">
         <v>43190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42825</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42460</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42094</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41729</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41364</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40999</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>265590800</v>
+        <v>274751400</v>
       </c>
       <c r="E8" s="3">
-        <v>249478600</v>
+        <v>267059700</v>
       </c>
       <c r="F8" s="3">
-        <v>256764200</v>
+        <v>250858500</v>
       </c>
       <c r="G8" s="3">
-        <v>246200100</v>
+        <v>258184300</v>
       </c>
       <c r="H8" s="3">
-        <v>232254900</v>
+        <v>247561800</v>
       </c>
       <c r="I8" s="3">
-        <v>199460300</v>
+        <v>233539500</v>
       </c>
       <c r="J8" s="3">
+        <v>200563500</v>
+      </c>
+      <c r="K8" s="3">
         <v>167996200</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>215957900</v>
+        <v>225266400</v>
       </c>
       <c r="E9" s="3">
-        <v>205518400</v>
+        <v>217152400</v>
       </c>
       <c r="F9" s="3">
-        <v>204353400</v>
+        <v>206655100</v>
       </c>
       <c r="G9" s="3">
-        <v>197448800</v>
+        <v>205483700</v>
       </c>
       <c r="H9" s="3">
-        <v>188042300</v>
+        <v>198540800</v>
       </c>
       <c r="I9" s="3">
-        <v>168514600</v>
+        <v>189082400</v>
       </c>
       <c r="J9" s="3">
+        <v>169446600</v>
+      </c>
+      <c r="K9" s="3">
         <v>148152600</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>49632800</v>
+        <v>49485000</v>
       </c>
       <c r="E10" s="3">
-        <v>43960200</v>
+        <v>49907300</v>
       </c>
       <c r="F10" s="3">
-        <v>52410800</v>
+        <v>44203400</v>
       </c>
       <c r="G10" s="3">
-        <v>48751300</v>
+        <v>52700700</v>
       </c>
       <c r="H10" s="3">
-        <v>44212600</v>
+        <v>49021000</v>
       </c>
       <c r="I10" s="3">
-        <v>30945700</v>
+        <v>44457100</v>
       </c>
       <c r="J10" s="3">
+        <v>31116900</v>
+      </c>
+      <c r="K10" s="3">
         <v>19843600</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,9 +868,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -914,9 +898,12 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -941,9 +928,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>243896000</v>
+        <v>252321500</v>
       </c>
       <c r="E17" s="3">
-        <v>231449500</v>
+        <v>245245000</v>
       </c>
       <c r="F17" s="3">
-        <v>230964300</v>
+        <v>232729600</v>
       </c>
       <c r="G17" s="3">
-        <v>221335000</v>
+        <v>232241700</v>
       </c>
       <c r="H17" s="3">
-        <v>211534200</v>
+        <v>222559200</v>
       </c>
       <c r="I17" s="3">
-        <v>187519500</v>
+        <v>212704200</v>
       </c>
       <c r="J17" s="3">
+        <v>188556600</v>
+      </c>
+      <c r="K17" s="3">
         <v>164781400</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>21694800</v>
+        <v>22430000</v>
       </c>
       <c r="E18" s="3">
-        <v>18029100</v>
+        <v>21814700</v>
       </c>
       <c r="F18" s="3">
-        <v>25799900</v>
+        <v>18128800</v>
       </c>
       <c r="G18" s="3">
-        <v>24865100</v>
+        <v>25942600</v>
       </c>
       <c r="H18" s="3">
-        <v>20720700</v>
+        <v>25002600</v>
       </c>
       <c r="I18" s="3">
-        <v>11940800</v>
+        <v>20835300</v>
       </c>
       <c r="J18" s="3">
+        <v>12006900</v>
+      </c>
+      <c r="K18" s="3">
         <v>3214900</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2243300</v>
+        <v>-1399900</v>
       </c>
       <c r="E20" s="3">
-        <v>2068400</v>
+        <v>2255700</v>
       </c>
       <c r="F20" s="3">
-        <v>1489900</v>
+        <v>2079800</v>
       </c>
       <c r="G20" s="3">
-        <v>1492800</v>
+        <v>1498200</v>
       </c>
       <c r="H20" s="3">
-        <v>1524100</v>
+        <v>1501100</v>
       </c>
       <c r="I20" s="3">
-        <v>955800</v>
+        <v>1532600</v>
       </c>
       <c r="J20" s="3">
+        <v>961100</v>
+      </c>
+      <c r="K20" s="3">
         <v>905500</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>39631100</v>
+        <v>37358600</v>
       </c>
       <c r="E21" s="3">
-        <v>34676600</v>
+        <v>39867500</v>
       </c>
       <c r="F21" s="3">
-        <v>42003600</v>
+        <v>34884400</v>
       </c>
       <c r="G21" s="3">
-        <v>39110000</v>
+        <v>42252100</v>
       </c>
       <c r="H21" s="3">
-        <v>33565000</v>
+        <v>39340400</v>
       </c>
       <c r="I21" s="3">
-        <v>22897800</v>
+        <v>33763100</v>
       </c>
       <c r="J21" s="3">
+        <v>23035500</v>
+      </c>
+      <c r="K21" s="3">
         <v>13784200</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>249400</v>
+        <v>255200</v>
       </c>
       <c r="E22" s="3">
-        <v>265400</v>
+        <v>250800</v>
       </c>
       <c r="F22" s="3">
-        <v>320000</v>
+        <v>266800</v>
       </c>
       <c r="G22" s="3">
-        <v>206800</v>
+        <v>321800</v>
       </c>
       <c r="H22" s="3">
-        <v>177500</v>
+        <v>207900</v>
       </c>
       <c r="I22" s="3">
-        <v>207600</v>
+        <v>178400</v>
       </c>
       <c r="J22" s="3">
+        <v>208800</v>
+      </c>
+      <c r="K22" s="3">
         <v>207200</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>23688700</v>
+        <v>20774900</v>
       </c>
       <c r="E23" s="3">
-        <v>19832200</v>
+        <v>23819700</v>
       </c>
       <c r="F23" s="3">
-        <v>26969800</v>
+        <v>19941900</v>
       </c>
       <c r="G23" s="3">
-        <v>26151200</v>
+        <v>27118900</v>
       </c>
       <c r="H23" s="3">
-        <v>22067400</v>
+        <v>26295800</v>
       </c>
       <c r="I23" s="3">
-        <v>12689000</v>
+        <v>22189400</v>
       </c>
       <c r="J23" s="3">
+        <v>12759200</v>
+      </c>
+      <c r="K23" s="3">
         <v>3913200</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4559800</v>
+        <v>5998900</v>
       </c>
       <c r="E24" s="3">
-        <v>5685300</v>
+        <v>4585100</v>
       </c>
       <c r="F24" s="3">
-        <v>7939600</v>
+        <v>5716700</v>
       </c>
       <c r="G24" s="3">
-        <v>8077000</v>
+        <v>7983500</v>
       </c>
       <c r="H24" s="3">
-        <v>6941000</v>
+        <v>8121600</v>
       </c>
       <c r="I24" s="3">
-        <v>4987200</v>
+        <v>6979400</v>
       </c>
       <c r="J24" s="3">
+        <v>5014800</v>
+      </c>
+      <c r="K24" s="3">
         <v>2370900</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>19128800</v>
+        <v>14776000</v>
       </c>
       <c r="E26" s="3">
-        <v>14146900</v>
+        <v>19234600</v>
       </c>
       <c r="F26" s="3">
-        <v>19030200</v>
+        <v>14225200</v>
       </c>
       <c r="G26" s="3">
-        <v>18074200</v>
+        <v>19135500</v>
       </c>
       <c r="H26" s="3">
-        <v>15126400</v>
+        <v>18174200</v>
       </c>
       <c r="I26" s="3">
-        <v>7701700</v>
+        <v>15210000</v>
       </c>
       <c r="J26" s="3">
+        <v>7744300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1542200</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>22434500</v>
+        <v>16980900</v>
       </c>
       <c r="E27" s="3">
-        <v>16464700</v>
+        <v>22558600</v>
       </c>
       <c r="F27" s="3">
-        <v>20851700</v>
+        <v>16555700</v>
       </c>
       <c r="G27" s="3">
-        <v>19647000</v>
+        <v>20967100</v>
       </c>
       <c r="H27" s="3">
-        <v>16481000</v>
+        <v>19755600</v>
       </c>
       <c r="I27" s="3">
-        <v>8698000</v>
+        <v>16572200</v>
       </c>
       <c r="J27" s="3">
+        <v>8746100</v>
+      </c>
+      <c r="K27" s="3">
         <v>2563400</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1288,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2243300</v>
+        <v>1399900</v>
       </c>
       <c r="E32" s="3">
-        <v>-2068400</v>
+        <v>-2255700</v>
       </c>
       <c r="F32" s="3">
-        <v>-1489900</v>
+        <v>-2079800</v>
       </c>
       <c r="G32" s="3">
-        <v>-1492800</v>
+        <v>-1498200</v>
       </c>
       <c r="H32" s="3">
-        <v>-1524100</v>
+        <v>-1501100</v>
       </c>
       <c r="I32" s="3">
-        <v>-955800</v>
+        <v>-1532600</v>
       </c>
       <c r="J32" s="3">
+        <v>-961100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-905500</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>22434500</v>
+        <v>16980900</v>
       </c>
       <c r="E33" s="3">
-        <v>16464700</v>
+        <v>22558600</v>
       </c>
       <c r="F33" s="3">
-        <v>20851700</v>
+        <v>16555700</v>
       </c>
       <c r="G33" s="3">
-        <v>19647000</v>
+        <v>20967100</v>
       </c>
       <c r="H33" s="3">
-        <v>16481000</v>
+        <v>19755600</v>
       </c>
       <c r="I33" s="3">
-        <v>8698000</v>
+        <v>16572200</v>
       </c>
       <c r="J33" s="3">
+        <v>8746100</v>
+      </c>
+      <c r="K33" s="3">
         <v>2563400</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>22434500</v>
+        <v>16980900</v>
       </c>
       <c r="E35" s="3">
-        <v>16464700</v>
+        <v>22558600</v>
       </c>
       <c r="F35" s="3">
-        <v>20851700</v>
+        <v>16555700</v>
       </c>
       <c r="G35" s="3">
-        <v>19647000</v>
+        <v>20967100</v>
       </c>
       <c r="H35" s="3">
-        <v>16481000</v>
+        <v>19755600</v>
       </c>
       <c r="I35" s="3">
-        <v>8698000</v>
+        <v>16572200</v>
       </c>
       <c r="J35" s="3">
+        <v>8746100</v>
+      </c>
+      <c r="K35" s="3">
         <v>2563400</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E38" s="2">
         <v>43190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42825</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42460</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42094</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41729</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41364</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40999</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,224 +1559,249 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>27592500</v>
+        <v>32494100</v>
       </c>
       <c r="E41" s="3">
-        <v>27075500</v>
+        <v>27745100</v>
       </c>
       <c r="F41" s="3">
-        <v>26572400</v>
+        <v>27225200</v>
       </c>
       <c r="G41" s="3">
-        <v>20652400</v>
+        <v>26719400</v>
       </c>
       <c r="H41" s="3">
-        <v>18452200</v>
+        <v>20766600</v>
       </c>
       <c r="I41" s="3">
-        <v>15533400</v>
+        <v>18554200</v>
       </c>
       <c r="J41" s="3">
+        <v>15619300</v>
+      </c>
+      <c r="K41" s="3">
         <v>15180000</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>24133200</v>
+        <v>20484400</v>
       </c>
       <c r="E42" s="3">
-        <v>26254400</v>
+        <v>24266700</v>
       </c>
       <c r="F42" s="3">
-        <v>22992500</v>
+        <v>26399700</v>
       </c>
       <c r="G42" s="3">
-        <v>26500000</v>
+        <v>23119700</v>
       </c>
       <c r="H42" s="3">
-        <v>20132800</v>
+        <v>26646600</v>
       </c>
       <c r="I42" s="3">
-        <v>14033400</v>
+        <v>20244200</v>
       </c>
       <c r="J42" s="3">
+        <v>14111000</v>
+      </c>
+      <c r="K42" s="3">
         <v>11402800</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>81877100</v>
+        <v>87160900</v>
       </c>
       <c r="E43" s="3">
-        <v>79095100</v>
+        <v>82330000</v>
       </c>
       <c r="F43" s="3">
-        <v>75612700</v>
+        <v>79532500</v>
       </c>
       <c r="G43" s="3">
-        <v>79545000</v>
+        <v>76030900</v>
       </c>
       <c r="H43" s="3">
-        <v>72467800</v>
+        <v>79985000</v>
       </c>
       <c r="I43" s="3">
-        <v>67999000</v>
+        <v>72868600</v>
       </c>
       <c r="J43" s="3">
+        <v>68375100</v>
+      </c>
+      <c r="K43" s="3">
         <v>58970400</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22959700</v>
+        <v>24146600</v>
       </c>
       <c r="E44" s="3">
-        <v>21593100</v>
+        <v>23086700</v>
       </c>
       <c r="F44" s="3">
-        <v>18636100</v>
+        <v>21712500</v>
       </c>
       <c r="G44" s="3">
-        <v>19324100</v>
+        <v>18739100</v>
       </c>
       <c r="H44" s="3">
-        <v>17128100</v>
+        <v>19430900</v>
       </c>
       <c r="I44" s="3">
-        <v>15510700</v>
+        <v>17222900</v>
       </c>
       <c r="J44" s="3">
+        <v>15596500</v>
+      </c>
+      <c r="K44" s="3">
         <v>14665400</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7537400</v>
+        <v>7326200</v>
       </c>
       <c r="E45" s="3">
-        <v>7198500</v>
+        <v>7579100</v>
       </c>
       <c r="F45" s="3">
-        <v>20800600</v>
+        <v>7238300</v>
       </c>
       <c r="G45" s="3">
-        <v>16123500</v>
+        <v>20915700</v>
       </c>
       <c r="H45" s="3">
-        <v>13907100</v>
+        <v>16212700</v>
       </c>
       <c r="I45" s="3">
-        <v>11538900</v>
+        <v>13984100</v>
       </c>
       <c r="J45" s="3">
+        <v>11602800</v>
+      </c>
+      <c r="K45" s="3">
         <v>11165000</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>164100000</v>
+        <v>171612000</v>
       </c>
       <c r="E46" s="3">
-        <v>161217000</v>
+        <v>165008000</v>
       </c>
       <c r="F46" s="3">
-        <v>164614000</v>
+        <v>162108000</v>
       </c>
       <c r="G46" s="3">
-        <v>162145000</v>
+        <v>165525000</v>
       </c>
       <c r="H46" s="3">
-        <v>142088000</v>
+        <v>163042000</v>
       </c>
       <c r="I46" s="3">
-        <v>124615000</v>
+        <v>142874000</v>
       </c>
       <c r="J46" s="3">
+        <v>125305000</v>
+      </c>
+      <c r="K46" s="3">
         <v>111384000</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>186824000</v>
+        <v>191767000</v>
       </c>
       <c r="E47" s="3">
-        <v>176849000</v>
+        <v>187858000</v>
       </c>
       <c r="F47" s="3">
-        <v>169476000</v>
+        <v>177828000</v>
       </c>
       <c r="G47" s="3">
-        <v>176925000</v>
+        <v>170414000</v>
       </c>
       <c r="H47" s="3">
-        <v>156772000</v>
+        <v>177903000</v>
       </c>
       <c r="I47" s="3">
-        <v>129067000</v>
+        <v>157640000</v>
       </c>
       <c r="J47" s="3">
+        <v>129781000</v>
+      </c>
+      <c r="K47" s="3">
         <v>105167000</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>92819800</v>
+        <v>97131100</v>
       </c>
       <c r="E48" s="3">
-        <v>92181900</v>
+        <v>93333100</v>
       </c>
       <c r="F48" s="3">
-        <v>88053400</v>
+        <v>92691700</v>
       </c>
       <c r="G48" s="3">
-        <v>84033300</v>
+        <v>88540400</v>
       </c>
       <c r="H48" s="3">
-        <v>69077300</v>
+        <v>84498100</v>
       </c>
       <c r="I48" s="3">
-        <v>61935200</v>
+        <v>69459400</v>
       </c>
       <c r="J48" s="3">
+        <v>62277800</v>
+      </c>
+      <c r="K48" s="3">
         <v>56367800</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1751,9 +1826,12 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11042400</v>
+        <v>11596700</v>
       </c>
       <c r="E52" s="3">
-        <v>10453900</v>
+        <v>11103400</v>
       </c>
       <c r="F52" s="3">
-        <v>6601600</v>
+        <v>10511700</v>
       </c>
       <c r="G52" s="3">
-        <v>8374600</v>
+        <v>6638200</v>
       </c>
       <c r="H52" s="3">
-        <v>6656900</v>
+        <v>8420900</v>
       </c>
       <c r="I52" s="3">
-        <v>5151100</v>
+        <v>6693800</v>
       </c>
       <c r="J52" s="3">
+        <v>5179600</v>
+      </c>
+      <c r="K52" s="3">
         <v>4166100</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>454787000</v>
+        <v>472107000</v>
       </c>
       <c r="E54" s="3">
-        <v>440702000</v>
+        <v>457302000</v>
       </c>
       <c r="F54" s="3">
-        <v>428746000</v>
+        <v>443139000</v>
       </c>
       <c r="G54" s="3">
-        <v>431478000</v>
+        <v>431117000</v>
       </c>
       <c r="H54" s="3">
-        <v>374595000</v>
+        <v>433864000</v>
       </c>
       <c r="I54" s="3">
-        <v>320769000</v>
+        <v>376667000</v>
       </c>
       <c r="J54" s="3">
+        <v>322543000</v>
+      </c>
+      <c r="K54" s="3">
         <v>277085000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23383400</v>
+        <v>24052000</v>
       </c>
       <c r="E57" s="3">
-        <v>23200100</v>
+        <v>23512700</v>
       </c>
       <c r="F57" s="3">
-        <v>21601200</v>
+        <v>23328400</v>
       </c>
       <c r="G57" s="3">
-        <v>21791700</v>
+        <v>21720700</v>
       </c>
       <c r="H57" s="3">
-        <v>20007500</v>
+        <v>21912200</v>
       </c>
       <c r="I57" s="3">
-        <v>19108600</v>
+        <v>20118200</v>
       </c>
       <c r="J57" s="3">
+        <v>19214200</v>
+      </c>
+      <c r="K57" s="3">
         <v>20273000</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>84444400</v>
+        <v>87257000</v>
       </c>
       <c r="E58" s="3">
-        <v>83566900</v>
+        <v>84911400</v>
       </c>
       <c r="F58" s="3">
-        <v>77030600</v>
+        <v>84029200</v>
       </c>
       <c r="G58" s="3">
-        <v>81030000</v>
+        <v>77456700</v>
       </c>
       <c r="H58" s="3">
-        <v>70335600</v>
+        <v>81478100</v>
       </c>
       <c r="I58" s="3">
-        <v>61417400</v>
+        <v>70724600</v>
       </c>
       <c r="J58" s="3">
+        <v>61757100</v>
+      </c>
+      <c r="K58" s="3">
         <v>53908000</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>53056200</v>
+        <v>54373800</v>
       </c>
       <c r="E59" s="3">
-        <v>49796400</v>
+        <v>53349600</v>
       </c>
       <c r="F59" s="3">
-        <v>47133200</v>
+        <v>50071800</v>
       </c>
       <c r="G59" s="3">
-        <v>45719000</v>
+        <v>47393900</v>
       </c>
       <c r="H59" s="3">
-        <v>42370300</v>
+        <v>45971900</v>
       </c>
       <c r="I59" s="3">
-        <v>36203300</v>
+        <v>42604700</v>
       </c>
       <c r="J59" s="3">
+        <v>36403500</v>
+      </c>
+      <c r="K59" s="3">
         <v>32324500</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>160884000</v>
+        <v>165683000</v>
       </c>
       <c r="E60" s="3">
-        <v>156563000</v>
+        <v>161774000</v>
       </c>
       <c r="F60" s="3">
-        <v>145765000</v>
+        <v>157429000</v>
       </c>
       <c r="G60" s="3">
-        <v>148541000</v>
+        <v>146571000</v>
       </c>
       <c r="H60" s="3">
-        <v>132713000</v>
+        <v>149362000</v>
       </c>
       <c r="I60" s="3">
-        <v>116729000</v>
+        <v>133447000</v>
       </c>
       <c r="J60" s="3">
+        <v>117375000</v>
+      </c>
+      <c r="K60" s="3">
         <v>106505000</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>90457600</v>
+        <v>95908100</v>
       </c>
       <c r="E61" s="3">
-        <v>89600800</v>
+        <v>90957900</v>
       </c>
       <c r="F61" s="3">
-        <v>88339500</v>
+        <v>90096400</v>
       </c>
       <c r="G61" s="3">
-        <v>90530100</v>
+        <v>88828100</v>
       </c>
       <c r="H61" s="3">
-        <v>77264100</v>
+        <v>91030900</v>
       </c>
       <c r="I61" s="3">
-        <v>66333900</v>
+        <v>77691400</v>
       </c>
       <c r="J61" s="3">
+        <v>66700800</v>
+      </c>
+      <c r="K61" s="3">
         <v>54622200</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23349500</v>
+        <v>23578200</v>
       </c>
       <c r="E62" s="3">
-        <v>25770100</v>
+        <v>23478600</v>
       </c>
       <c r="F62" s="3">
-        <v>31123700</v>
+        <v>25912600</v>
       </c>
       <c r="G62" s="3">
-        <v>32875000</v>
+        <v>31295900</v>
       </c>
       <c r="H62" s="3">
-        <v>27037700</v>
+        <v>33056800</v>
       </c>
       <c r="I62" s="3">
-        <v>22239500</v>
+        <v>27187200</v>
       </c>
       <c r="J62" s="3">
+        <v>22362500</v>
+      </c>
+      <c r="K62" s="3">
         <v>15916100</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>280966000</v>
+        <v>291705000</v>
       </c>
       <c r="E66" s="3">
-        <v>277976000</v>
+        <v>282520000</v>
       </c>
       <c r="F66" s="3">
-        <v>273016000</v>
+        <v>279513000</v>
       </c>
       <c r="G66" s="3">
-        <v>279713000</v>
+        <v>274526000</v>
       </c>
       <c r="H66" s="3">
-        <v>243794000</v>
+        <v>281260000</v>
       </c>
       <c r="I66" s="3">
-        <v>210951000</v>
+        <v>245142000</v>
       </c>
       <c r="J66" s="3">
+        <v>212118000</v>
+      </c>
+      <c r="K66" s="3">
         <v>181710000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,23 +2378,26 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4447400</v>
+        <v>4527500</v>
       </c>
       <c r="E70" s="3">
-        <v>4392300</v>
+        <v>4472000</v>
       </c>
       <c r="F70" s="3">
-        <v>4337200</v>
+        <v>4416600</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>4361200</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>176040000</v>
+        <v>199867000</v>
       </c>
       <c r="E72" s="3">
-        <v>159114000</v>
+        <v>177014000</v>
       </c>
       <c r="F72" s="3">
-        <v>151820000</v>
+        <v>159994000</v>
       </c>
       <c r="G72" s="3">
-        <v>140951000</v>
+        <v>152660000</v>
       </c>
       <c r="H72" s="3">
-        <v>127611000</v>
+        <v>141731000</v>
       </c>
       <c r="I72" s="3">
-        <v>114710000</v>
+        <v>128317000</v>
       </c>
       <c r="J72" s="3">
+        <v>115345000</v>
+      </c>
+      <c r="K72" s="3">
         <v>107730000</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>169373000</v>
+        <v>175875000</v>
       </c>
       <c r="E76" s="3">
-        <v>158334000</v>
+        <v>170310000</v>
       </c>
       <c r="F76" s="3">
-        <v>151392000</v>
+        <v>159210000</v>
       </c>
       <c r="G76" s="3">
-        <v>151765000</v>
+        <v>152230000</v>
       </c>
       <c r="H76" s="3">
-        <v>130801000</v>
+        <v>152604000</v>
       </c>
       <c r="I76" s="3">
-        <v>109818000</v>
+        <v>131525000</v>
       </c>
       <c r="J76" s="3">
+        <v>110426000</v>
+      </c>
+      <c r="K76" s="3">
         <v>95374400</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E80" s="2">
         <v>43190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42825</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42460</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42094</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41729</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41364</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40999</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>22434500</v>
+        <v>16980900</v>
       </c>
       <c r="E81" s="3">
-        <v>16464700</v>
+        <v>22558600</v>
       </c>
       <c r="F81" s="3">
-        <v>20851700</v>
+        <v>16555700</v>
       </c>
       <c r="G81" s="3">
-        <v>19647000</v>
+        <v>20967100</v>
       </c>
       <c r="H81" s="3">
-        <v>16481000</v>
+        <v>19755600</v>
       </c>
       <c r="I81" s="3">
-        <v>8698000</v>
+        <v>16572200</v>
       </c>
       <c r="J81" s="3">
+        <v>8746100</v>
+      </c>
+      <c r="K81" s="3">
         <v>2563400</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15675700</v>
+        <v>16292700</v>
       </c>
       <c r="E83" s="3">
-        <v>14563000</v>
+        <v>15762400</v>
       </c>
       <c r="F83" s="3">
-        <v>14697600</v>
+        <v>14643500</v>
       </c>
       <c r="G83" s="3">
-        <v>12738000</v>
+        <v>14778900</v>
       </c>
       <c r="H83" s="3">
-        <v>11307700</v>
+        <v>12808500</v>
       </c>
       <c r="I83" s="3">
-        <v>9990200</v>
+        <v>11370300</v>
       </c>
       <c r="J83" s="3">
+        <v>10045400</v>
+      </c>
+      <c r="K83" s="3">
         <v>9653200</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>38058500</v>
+        <v>34238400</v>
       </c>
       <c r="E89" s="3">
-        <v>30864700</v>
+        <v>38388200</v>
       </c>
       <c r="F89" s="3">
-        <v>40326100</v>
+        <v>31035400</v>
       </c>
       <c r="G89" s="3">
-        <v>33319200</v>
+        <v>40549200</v>
       </c>
       <c r="H89" s="3">
-        <v>32960200</v>
+        <v>33503500</v>
       </c>
       <c r="I89" s="3">
-        <v>22159900</v>
+        <v>33142500</v>
       </c>
       <c r="J89" s="3">
+        <v>22282500</v>
+      </c>
+      <c r="K89" s="3">
         <v>13130000</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-32532300</v>
+        <v>-33986500</v>
       </c>
       <c r="E91" s="3">
-        <v>-32014600</v>
+        <v>-32712200</v>
       </c>
       <c r="F91" s="3">
-        <v>-36695300</v>
+        <v>-32191700</v>
       </c>
       <c r="G91" s="3">
-        <v>-30352400</v>
+        <v>-36898300</v>
       </c>
       <c r="H91" s="3">
-        <v>-24215400</v>
+        <v>-30520300</v>
       </c>
       <c r="I91" s="3">
-        <v>-17846300</v>
+        <v>-24349300</v>
       </c>
       <c r="J91" s="3">
+        <v>-17945000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-13850000</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-33087200</v>
+        <v>-24517900</v>
       </c>
       <c r="E94" s="3">
-        <v>-26848200</v>
+        <v>-33270200</v>
       </c>
       <c r="F94" s="3">
-        <v>-28770200</v>
+        <v>-26996700</v>
       </c>
       <c r="G94" s="3">
-        <v>-34473900</v>
+        <v>-28929300</v>
       </c>
       <c r="H94" s="3">
-        <v>-39199700</v>
+        <v>-34664600</v>
       </c>
       <c r="I94" s="3">
-        <v>-27366900</v>
+        <v>-39416500</v>
       </c>
       <c r="J94" s="3">
+        <v>-27518300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-13041600</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5667100</v>
+        <v>-5861300</v>
       </c>
       <c r="E96" s="3">
-        <v>-5769100</v>
+        <v>-5698400</v>
       </c>
       <c r="F96" s="3">
-        <v>-6381800</v>
+        <v>-5801000</v>
       </c>
       <c r="G96" s="3">
-        <v>-5016600</v>
+        <v>-6417100</v>
       </c>
       <c r="H96" s="3">
-        <v>-3580100</v>
+        <v>-5044300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1717700</v>
+        <v>-3599900</v>
       </c>
       <c r="J96" s="3">
+        <v>-1727200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1417300</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4060200</v>
+        <v>-4916200</v>
       </c>
       <c r="E100" s="3">
-        <v>-3391500</v>
+        <v>-4082600</v>
       </c>
       <c r="F100" s="3">
-        <v>-3829100</v>
+        <v>-3410200</v>
       </c>
       <c r="G100" s="3">
-        <v>2766600</v>
+        <v>-3850300</v>
       </c>
       <c r="H100" s="3">
-        <v>8312100</v>
+        <v>2781900</v>
       </c>
       <c r="I100" s="3">
-        <v>4314300</v>
+        <v>8358100</v>
       </c>
       <c r="J100" s="3">
+        <v>4338100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3212300</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-394000</v>
+        <v>-378500</v>
       </c>
       <c r="E101" s="3">
-        <v>-121900</v>
+        <v>-396200</v>
       </c>
       <c r="F101" s="3">
-        <v>-1806800</v>
+        <v>-122600</v>
       </c>
       <c r="G101" s="3">
-        <v>588300</v>
+        <v>-1816800</v>
       </c>
       <c r="H101" s="3">
-        <v>846200</v>
+        <v>591600</v>
       </c>
       <c r="I101" s="3">
-        <v>1246200</v>
+        <v>850900</v>
       </c>
       <c r="J101" s="3">
+        <v>1253100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-505700</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>517000</v>
+        <v>4425700</v>
       </c>
       <c r="E102" s="3">
-        <v>503000</v>
+        <v>639100</v>
       </c>
       <c r="F102" s="3">
-        <v>5920000</v>
+        <v>505800</v>
       </c>
       <c r="G102" s="3">
-        <v>2200200</v>
+        <v>5952800</v>
       </c>
       <c r="H102" s="3">
-        <v>2918800</v>
+        <v>2212400</v>
       </c>
       <c r="I102" s="3">
-        <v>353400</v>
+        <v>2934900</v>
       </c>
       <c r="J102" s="3">
+        <v>355400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3629600</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
